--- a/tools/Composite_SLO_Estimation_Tool.xlsx
+++ b/tools/Composite_SLO_Estimation_Tool.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F662193-836F-4ABA-9576-81A76BF4D1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92C6F7-0469-404A-9826-964E608960AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{FEC4E9EF-0B4B-44BF-B15A-D353C80B4A94}"/>
+    <workbookView xWindow="48480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FEC4E9EF-0B4B-44BF-B15A-D353C80B4A94}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
     <sheet name="Estimator" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Region1SLO">Estimator!$H$29</definedName>
+    <definedName name="Region2SLO">Estimator!$R$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Traffic Manager</t>
   </si>
@@ -128,6 +132,9 @@
   </si>
   <si>
     <t>SLIs, SLOs, SLAs, oh my!</t>
+  </si>
+  <si>
+    <t>The region SLO formula combines all SLAs (Product) inside the box, so that you can add/remove lines as required.</t>
   </si>
 </sst>
 </file>
@@ -748,22 +755,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="84.26953125" customWidth="1"/>
+    <col min="2" max="2" width="84.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B1" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" ht="57" x14ac:dyDescent="0.45">
       <c r="B3" s="47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="B5" s="46" t="s">
         <v>20</v>
       </c>
@@ -779,34 +786,34 @@
   <dimension ref="B2:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="2.90625" customWidth="1"/>
-    <col min="3" max="3" width="2.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.1796875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.08984375" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.36328125" customWidth="1"/>
-    <col min="13" max="13" width="2.36328125" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.7265625" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.26953125" customWidth="1"/>
-    <col min="18" max="18" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.54296875" customWidth="1"/>
-    <col min="20" max="20" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="2.9296875" customWidth="1"/>
+    <col min="3" max="3" width="2.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.19921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.06640625" customWidth="1"/>
+    <col min="11" max="11" width="13.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.73046875" customWidth="1"/>
+    <col min="16" max="16" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.265625" customWidth="1"/>
+    <col min="18" max="18" width="11.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.53125" customWidth="1"/>
+    <col min="20" max="20" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B2" s="6"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -827,7 +834,7 @@
       <c r="S2" s="8"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B3" s="11"/>
       <c r="C3" s="13"/>
       <c r="D3" s="33"/>
@@ -850,7 +857,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="14"/>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B4" s="11"/>
       <c r="C4" s="13"/>
       <c r="D4" s="35"/>
@@ -873,7 +880,7 @@
       <c r="S4" s="13"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B5" s="11"/>
       <c r="C5" s="13"/>
       <c r="D5" s="12"/>
@@ -894,7 +901,7 @@
       <c r="S5" s="13"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -915,7 +922,7 @@
       <c r="S6" s="10"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
@@ -943,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -972,7 +979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
@@ -1000,7 +1007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="3"/>
@@ -1034,7 +1041,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="4"/>
@@ -1063,7 +1070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -1091,7 +1098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="3" t="s">
@@ -1138,7 +1145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="5">
@@ -1178,7 +1185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
@@ -1203,7 +1210,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -1229,7 +1236,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -1255,7 +1262,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -1280,7 +1287,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
@@ -1306,7 +1313,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -1332,7 +1339,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
@@ -1357,7 +1364,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
@@ -1383,7 +1390,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -1409,7 +1416,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -1434,7 +1441,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
@@ -1460,7 +1467,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -1486,7 +1493,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B27" s="11"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
@@ -1507,7 +1514,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B28" s="11"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1532,7 +1539,7 @@
       <c r="S28" s="13"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B29" s="11"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1540,7 +1547,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
       <c r="H29" s="44">
-        <f>H8*H11*H14*H17*H20*H23*H26</f>
+        <f>PRODUCT(H6:H27)</f>
         <v>0.99639538169847985</v>
       </c>
       <c r="I29" s="12"/>
@@ -1553,13 +1560,16 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="44">
-        <f>R8*R11*R14*R17*R20*R23*R26</f>
+        <f>PRODUCT(R6:R27)</f>
         <v>0.99639538169847985</v>
       </c>
       <c r="S29" s="13"/>
       <c r="T29" s="14"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="V29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B30" s="11"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1580,7 +1590,7 @@
       <c r="S30" s="13"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B31" s="11"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1603,7 +1613,7 @@
       <c r="S31" s="13"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B32" s="16"/>
       <c r="C32" s="18"/>
       <c r="D32" s="17"/>
@@ -1614,7 +1624,7 @@
       <c r="I32" s="17"/>
       <c r="J32" s="18"/>
       <c r="K32" s="41">
-        <f>(1-((1-H29)*(1-R29)))*K4</f>
+        <f>(1-((1-Region1SLO)*(1-Region2SLO)))*K4</f>
         <v>0.99988700802622765</v>
       </c>
       <c r="L32" s="18"/>
@@ -1627,12 +1637,12 @@
       <c r="S32" s="18"/>
       <c r="T32" s="19"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="42" t="s">
         <v>6</v>
       </c>
